--- a/statistics/HistoricalDistanceData/historical_distance/Q434319-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q434319-en.xlsx
@@ -34,36 +34,36 @@
     <t>The Hells Angels Brought Death To Rock And Roll’s Worst Day</t>
   </si>
   <si>
+    <t>KSAN's Post-Altamont Broadcast</t>
+  </si>
+  <si>
     <t>What Died at Altamont</t>
   </si>
   <si>
+    <t>Salon.com Arts &amp; Entertainment</t>
+  </si>
+  <si>
     <t>American Pie: 6 crazy conspiracy theories</t>
   </si>
   <si>
-    <t>Salon.com Arts &amp; Entertainment</t>
-  </si>
-  <si>
-    <t>KSAN's Post-Altamont Broadcast</t>
-  </si>
-  <si>
     <t>Rolling Stones at Altamont</t>
   </si>
   <si>
     <t>2016-10-31T00:50:56UTC</t>
   </si>
   <si>
+    <t>2012-06-20T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2015-03-11T15:40:03UTC</t>
   </si>
   <si>
+    <t>2000-08-10T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2015-04-07T12:49:00UTC</t>
   </si>
   <si>
-    <t>2000-08-10T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2012-06-20T00:00:00UTC</t>
-  </si>
-  <si>
     <t>1969-12-06T00:00:00UTC</t>
   </si>
   <si>
@@ -76,16 +76,16 @@
     <t>https://theravenreport.com/2016/10/31/rock-and-rolls-worst-day-this-1969-concert-ended-in-death/</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JUlyVSfhgaM</t>
+  </si>
+  <si>
     <t>http://www.newyorker.com/culture/richard-brody/what-died-at-altamont</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20090428064145/http://archive.salon.com/ent/col/srag/2000/08/10/gimme_shelter/index.html</t>
+  </si>
+  <si>
     <t>https://www.telegraph.co.uk/culture/music/music-news/11518980/American-Pie-6-crazy-conspiracy-theories.html</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20090428064145/http://archive.salon.com/ent/col/srag/2000/08/10/gimme_shelter/index.html</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JUlyVSfhgaM</t>
   </si>
   <si>
     <t>https://www.bbc.co.uk/music/sevenages/events/blues-based-rock/rolling-stones-at-altamont/</t>
@@ -507,7 +507,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>16531</v>
+        <v>15537</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -524,7 +524,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>16558</v>
+        <v>16531</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>15537</v>
+        <v>16558</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
